--- a/excel.xlsx
+++ b/excel.xlsx
@@ -21,9 +21,6 @@
     <t>Foo</t>
   </si>
   <si>
-    <t>Bar</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Bar name</t>
   </si>
 </sst>
 </file>
@@ -377,17 +377,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -395,10 +395,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>9999999</v>
@@ -406,10 +406,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>8888888</v>
@@ -417,10 +417,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>7777777</v>
@@ -428,10 +428,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>6666666</v>
@@ -439,10 +439,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>5555555</v>
@@ -450,10 +450,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
       </c>
       <c r="C7">
         <v>4444444</v>
